--- a/CumulativeTestsByTypeByCounty/2021-03-04.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-03-04.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>47667</v>
+        <v>47691</v>
       </c>
       <c r="C2" s="4">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D2" s="4">
-        <v>5838</v>
+        <v>5884</v>
       </c>
       <c r="E2" s="4">
-        <v>54925</v>
+        <v>54996</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3956</v>
+        <v>3962</v>
       </c>
       <c r="C3" s="4">
         <v>199</v>
       </c>
       <c r="D3" s="4">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="E3" s="4">
-        <v>6151</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>51237</v>
+        <v>51314</v>
       </c>
       <c r="C4" s="4">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="D4" s="4">
-        <v>17803</v>
+        <v>17844</v>
       </c>
       <c r="E4" s="4">
-        <v>70526</v>
+        <v>70648</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>6690</v>
+        <v>6727</v>
       </c>
       <c r="C5" s="4">
-        <v>2047</v>
+        <v>2055</v>
       </c>
       <c r="D5" s="4">
-        <v>4442</v>
+        <v>4476</v>
       </c>
       <c r="E5" s="4">
-        <v>13179</v>
+        <v>13258</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1145,10 +1145,10 @@
         <v>415</v>
       </c>
       <c r="D6" s="4">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="E6" s="4">
-        <v>3599</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C7" s="4">
         <v>211</v>
       </c>
       <c r="D7" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E7" s="4">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>47290</v>
+        <v>47389</v>
       </c>
       <c r="C8" s="4">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="D8" s="4">
-        <v>3714</v>
+        <v>3732</v>
       </c>
       <c r="E8" s="4">
-        <v>52014</v>
+        <v>52134</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>15973</v>
+        <v>16024</v>
       </c>
       <c r="C9" s="4">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D9" s="4">
-        <v>903</v>
+        <v>955</v>
       </c>
       <c r="E9" s="4">
-        <v>17304</v>
+        <v>17410</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="C10" s="4">
         <v>39</v>
       </c>
       <c r="D10" s="4">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E10" s="4">
-        <v>2165</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>7061</v>
+        <v>7088</v>
       </c>
       <c r="C11" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D11" s="4">
-        <v>2934</v>
+        <v>2939</v>
       </c>
       <c r="E11" s="4">
-        <v>10416</v>
+        <v>10449</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>45392</v>
+        <v>45622</v>
       </c>
       <c r="C12" s="4">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D12" s="4">
-        <v>13761</v>
+        <v>13889</v>
       </c>
       <c r="E12" s="4">
-        <v>60210</v>
+        <v>60569</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="C13" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D13" s="4">
         <v>811</v>
       </c>
       <c r="E13" s="4">
-        <v>2059</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>28955</v>
+        <v>29069</v>
       </c>
       <c r="C14" s="4">
-        <v>4987</v>
+        <v>5011</v>
       </c>
       <c r="D14" s="4">
-        <v>5886</v>
+        <v>5912</v>
       </c>
       <c r="E14" s="4">
-        <v>39828</v>
+        <v>39992</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>217508</v>
+        <v>218067</v>
       </c>
       <c r="C15" s="4">
-        <v>12976</v>
+        <v>12998</v>
       </c>
       <c r="D15" s="4">
-        <v>11484</v>
+        <v>11613</v>
       </c>
       <c r="E15" s="4">
-        <v>241968</v>
+        <v>242678</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1643344</v>
+        <v>1646982</v>
       </c>
       <c r="C16" s="4">
-        <v>44237</v>
+        <v>44347</v>
       </c>
       <c r="D16" s="4">
-        <v>158535</v>
+        <v>159675</v>
       </c>
       <c r="E16" s="4">
-        <v>1846116</v>
+        <v>1851004</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>5156</v>
+        <v>5168</v>
       </c>
       <c r="C17" s="4">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D17" s="4">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="E17" s="4">
-        <v>5933</v>
+        <v>5953</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1349,10 +1349,10 @@
         <v>9</v>
       </c>
       <c r="D18" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>8150</v>
+        <v>8166</v>
       </c>
       <c r="C19" s="4">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D19" s="4">
-        <v>4071</v>
+        <v>4077</v>
       </c>
       <c r="E19" s="4">
-        <v>12680</v>
+        <v>12704</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>54847</v>
+        <v>54922</v>
       </c>
       <c r="C20" s="4">
-        <v>9726</v>
+        <v>9729</v>
       </c>
       <c r="D20" s="4">
-        <v>8863</v>
+        <v>9127</v>
       </c>
       <c r="E20" s="4">
-        <v>73436</v>
+        <v>73778</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>281593</v>
+        <v>282351</v>
       </c>
       <c r="C21" s="4">
-        <v>8791</v>
+        <v>8816</v>
       </c>
       <c r="D21" s="4">
-        <v>26976</v>
+        <v>27413</v>
       </c>
       <c r="E21" s="4">
-        <v>317360</v>
+        <v>318580</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>215143</v>
+        <v>216078</v>
       </c>
       <c r="C22" s="4">
-        <v>5428</v>
+        <v>5452</v>
       </c>
       <c r="D22" s="4">
-        <v>13725</v>
+        <v>13892</v>
       </c>
       <c r="E22" s="4">
-        <v>234296</v>
+        <v>235422</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8428</v>
+        <v>8432</v>
       </c>
       <c r="C23" s="4">
         <v>109</v>
       </c>
       <c r="D23" s="4">
-        <v>717</v>
+        <v>736</v>
       </c>
       <c r="E23" s="4">
-        <v>9254</v>
+        <v>9277</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,16 +1445,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C24" s="4">
         <v>113</v>
       </c>
       <c r="D24" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E24" s="4">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>12787</v>
+        <v>12946</v>
       </c>
       <c r="C25" s="4">
-        <v>1284</v>
+        <v>1293</v>
       </c>
       <c r="D25" s="4">
-        <v>1670</v>
+        <v>1734</v>
       </c>
       <c r="E25" s="4">
-        <v>15741</v>
+        <v>15973</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>15643</v>
+        <v>15657</v>
       </c>
       <c r="C26" s="4">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D26" s="4">
-        <v>15385</v>
+        <v>15409</v>
       </c>
       <c r="E26" s="4">
-        <v>31769</v>
+        <v>31810</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>12705</v>
+        <v>12735</v>
       </c>
       <c r="C27" s="4">
         <v>233</v>
       </c>
       <c r="D27" s="4">
-        <v>1946</v>
+        <v>1981</v>
       </c>
       <c r="E27" s="4">
-        <v>14884</v>
+        <v>14949</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>29595</v>
+        <v>29732</v>
       </c>
       <c r="C28" s="4">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="D28" s="4">
-        <v>2881</v>
+        <v>2916</v>
       </c>
       <c r="E28" s="4">
-        <v>33512</v>
+        <v>33689</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>29381</v>
+        <v>29498</v>
       </c>
       <c r="C29" s="4">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="D29" s="4">
-        <v>4660</v>
+        <v>4704</v>
       </c>
       <c r="E29" s="4">
-        <v>35551</v>
+        <v>35716</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>12380</v>
+        <v>12404</v>
       </c>
       <c r="C30" s="4">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D30" s="4">
-        <v>3918</v>
+        <v>3942</v>
       </c>
       <c r="E30" s="4">
-        <v>16601</v>
+        <v>16651</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4783</v>
+        <v>4785</v>
       </c>
       <c r="C31" s="4">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D31" s="4">
-        <v>4385</v>
+        <v>4395</v>
       </c>
       <c r="E31" s="4">
-        <v>9384</v>
+        <v>9397</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>225550</v>
+        <v>226323</v>
       </c>
       <c r="C32" s="4">
-        <v>7377</v>
+        <v>7401</v>
       </c>
       <c r="D32" s="4">
-        <v>38378</v>
+        <v>39075</v>
       </c>
       <c r="E32" s="4">
-        <v>271305</v>
+        <v>272799</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>5407</v>
+        <v>5418</v>
       </c>
       <c r="C33" s="4">
         <v>353</v>
       </c>
       <c r="D33" s="4">
-        <v>1509</v>
+        <v>1518</v>
       </c>
       <c r="E33" s="4">
-        <v>7269</v>
+        <v>7289</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1509</v>
+        <v>1521</v>
       </c>
       <c r="C34" s="4">
         <v>764</v>
       </c>
       <c r="D34" s="4">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E34" s="4">
-        <v>2539</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>11122</v>
+        <v>11158</v>
       </c>
       <c r="C35" s="4">
-        <v>3106</v>
+        <v>3108</v>
       </c>
       <c r="D35" s="4">
-        <v>2901</v>
+        <v>3027</v>
       </c>
       <c r="E35" s="4">
-        <v>17129</v>
+        <v>17293</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>3666</v>
+        <v>3715</v>
       </c>
       <c r="C36" s="4">
         <v>216</v>
       </c>
       <c r="D36" s="4">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="E36" s="4">
-        <v>5506</v>
+        <v>5557</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>7208</v>
+        <v>7234</v>
       </c>
       <c r="C37" s="4">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D37" s="4">
-        <v>1138</v>
+        <v>1153</v>
       </c>
       <c r="E37" s="4">
-        <v>8885</v>
+        <v>8927</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>20965</v>
+        <v>20994</v>
       </c>
       <c r="C38" s="4">
         <v>737</v>
       </c>
       <c r="D38" s="4">
-        <v>6493</v>
+        <v>6511</v>
       </c>
       <c r="E38" s="4">
-        <v>28195</v>
+        <v>28242</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,7 +1700,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2637</v>
+        <v>2727</v>
       </c>
       <c r="C39" s="4">
         <v>299</v>
@@ -1709,7 +1709,7 @@
         <v>3951</v>
       </c>
       <c r="E39" s="4">
-        <v>6887</v>
+        <v>6977</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3846</v>
+        <v>3855</v>
       </c>
       <c r="C40" s="4">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D40" s="4">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="E40" s="4">
-        <v>5402</v>
+        <v>5415</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C41" s="4">
         <v>15</v>
       </c>
       <c r="D41" s="4">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E41" s="4">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1770</v>
+        <v>1773</v>
       </c>
       <c r="C42" s="4">
         <v>23</v>
       </c>
       <c r="D42" s="4">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="E42" s="4">
-        <v>3488</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2898</v>
+        <v>2904</v>
       </c>
       <c r="C43" s="4">
         <v>83</v>
       </c>
       <c r="D43" s="4">
-        <v>2524</v>
+        <v>2528</v>
       </c>
       <c r="E43" s="4">
-        <v>5505</v>
+        <v>5515</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>799015</v>
+        <v>801859</v>
       </c>
       <c r="C44" s="4">
-        <v>76115</v>
+        <v>76281</v>
       </c>
       <c r="D44" s="4">
-        <v>75279</v>
+        <v>76979</v>
       </c>
       <c r="E44" s="4">
-        <v>950409</v>
+        <v>955119</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="C45" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D45" s="4">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="E45" s="4">
-        <v>2270</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>10847</v>
+        <v>10868</v>
       </c>
       <c r="C46" s="4">
         <v>263</v>
       </c>
       <c r="D46" s="4">
-        <v>3252</v>
+        <v>3277</v>
       </c>
       <c r="E46" s="4">
-        <v>14362</v>
+        <v>14408</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>86049</v>
+        <v>86386</v>
       </c>
       <c r="C47" s="4">
-        <v>6676</v>
+        <v>6692</v>
       </c>
       <c r="D47" s="4">
-        <v>15648</v>
+        <v>15854</v>
       </c>
       <c r="E47" s="4">
-        <v>108373</v>
+        <v>108932</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>6111</v>
+        <v>6112</v>
       </c>
       <c r="C48" s="4">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D48" s="4">
-        <v>2023</v>
+        <v>2035</v>
       </c>
       <c r="E48" s="4">
-        <v>8427</v>
+        <v>8441</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="C49" s="4">
         <v>14</v>
       </c>
       <c r="D49" s="4">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="E49" s="4">
-        <v>2721</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>21656</v>
+        <v>21704</v>
       </c>
       <c r="C50" s="4">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="D50" s="4">
-        <v>4099</v>
+        <v>4105</v>
       </c>
       <c r="E50" s="4">
-        <v>27014</v>
+        <v>27072</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>77482</v>
+        <v>77792</v>
       </c>
       <c r="C51" s="4">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="D51" s="4">
-        <v>2811</v>
+        <v>2831</v>
       </c>
       <c r="E51" s="4">
-        <v>82404</v>
+        <v>82737</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,7 +1921,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="C52" s="4">
         <v>20</v>
@@ -1930,7 +1930,7 @@
         <v>655</v>
       </c>
       <c r="E52" s="4">
-        <v>1307</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4185</v>
+        <v>4280</v>
       </c>
       <c r="C53" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D53" s="4">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="E53" s="4">
-        <v>5289</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1961,10 +1961,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="4">
-        <v>1802</v>
+        <v>1813</v>
       </c>
       <c r="E54" s="4">
-        <v>2741</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2295</v>
+        <v>2309</v>
       </c>
       <c r="C55" s="4">
         <v>22</v>
       </c>
       <c r="D55" s="4">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="E55" s="4">
-        <v>3754</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2078</v>
+        <v>2085</v>
       </c>
       <c r="C56" s="4">
         <v>12</v>
       </c>
       <c r="D56" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E56" s="4">
-        <v>2216</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,7 +2006,7 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C57" s="4">
         <v>257</v>
@@ -2015,7 +2015,7 @@
         <v>1536</v>
       </c>
       <c r="E57" s="4">
-        <v>2833</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>2040995</v>
+        <v>2047114</v>
       </c>
       <c r="C58" s="4">
-        <v>125236</v>
+        <v>125575</v>
       </c>
       <c r="D58" s="4">
-        <v>160021</v>
+        <v>162570</v>
       </c>
       <c r="E58" s="4">
-        <v>2326252</v>
+        <v>2335259</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>7241</v>
+        <v>7284</v>
       </c>
       <c r="C59" s="4">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D59" s="4">
-        <v>1944</v>
+        <v>1954</v>
       </c>
       <c r="E59" s="4">
-        <v>9622</v>
+        <v>9676</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>8071</v>
+        <v>8087</v>
       </c>
       <c r="C60" s="4">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D60" s="4">
-        <v>2149</v>
+        <v>2153</v>
       </c>
       <c r="E60" s="4">
-        <v>10432</v>
+        <v>10453</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,7 +2074,7 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4365</v>
+        <v>4374</v>
       </c>
       <c r="C61" s="4">
         <v>712</v>
@@ -2083,7 +2083,7 @@
         <v>1865</v>
       </c>
       <c r="E61" s="4">
-        <v>6942</v>
+        <v>6951</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="C62" s="4">
         <v>210</v>
       </c>
       <c r="D62" s="4">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="E62" s="4">
-        <v>2757</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>498622</v>
+        <v>500357</v>
       </c>
       <c r="C63" s="4">
-        <v>56019</v>
+        <v>56137</v>
       </c>
       <c r="D63" s="4">
-        <v>67882</v>
+        <v>68827</v>
       </c>
       <c r="E63" s="4">
-        <v>622523</v>
+        <v>625321</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,7 +2125,7 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C64" s="4">
         <v>7</v>
@@ -2134,7 +2134,7 @@
         <v>311</v>
       </c>
       <c r="E64" s="4">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>9445</v>
+        <v>9467</v>
       </c>
       <c r="C65" s="4">
         <v>82</v>
       </c>
       <c r="D65" s="4">
-        <v>931</v>
+        <v>1016</v>
       </c>
       <c r="E65" s="4">
-        <v>10458</v>
+        <v>10565</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,7 +2159,7 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="C66" s="4">
         <v>321</v>
@@ -2168,7 +2168,7 @@
         <v>624</v>
       </c>
       <c r="E66" s="4">
-        <v>2055</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>15778</v>
+        <v>15849</v>
       </c>
       <c r="C67" s="4">
-        <v>2216</v>
+        <v>2231</v>
       </c>
       <c r="D67" s="4">
-        <v>1591</v>
+        <v>1647</v>
       </c>
       <c r="E67" s="4">
-        <v>19585</v>
+        <v>19727</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>4359</v>
+        <v>4368</v>
       </c>
       <c r="C68" s="4">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D68" s="4">
-        <v>3109</v>
+        <v>3125</v>
       </c>
       <c r="E68" s="4">
-        <v>7806</v>
+        <v>7832</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>54578</v>
+        <v>54730</v>
       </c>
       <c r="C69" s="4">
-        <v>4363</v>
+        <v>4370</v>
       </c>
       <c r="D69" s="4">
-        <v>14699</v>
+        <v>14775</v>
       </c>
       <c r="E69" s="4">
-        <v>73640</v>
+        <v>73875</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,7 +2227,7 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="C70" s="4">
         <v>27</v>
@@ -2236,7 +2236,7 @@
         <v>314</v>
       </c>
       <c r="E70" s="4">
-        <v>1442</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>776021</v>
+        <v>777492</v>
       </c>
       <c r="C71" s="4">
-        <v>15962</v>
+        <v>15981</v>
       </c>
       <c r="D71" s="4">
-        <v>169229</v>
+        <v>183036</v>
       </c>
       <c r="E71" s="4">
-        <v>961212</v>
+        <v>976509</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>146856</v>
+        <v>147231</v>
       </c>
       <c r="C72" s="4">
-        <v>6752</v>
+        <v>6759</v>
       </c>
       <c r="D72" s="4">
-        <v>11744</v>
+        <v>11805</v>
       </c>
       <c r="E72" s="4">
-        <v>165352</v>
+        <v>165795</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>16127</v>
+        <v>16166</v>
       </c>
       <c r="C73" s="4">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="D73" s="4">
-        <v>5569</v>
+        <v>5652</v>
       </c>
       <c r="E73" s="4">
-        <v>22776</v>
+        <v>22903</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>11481</v>
+        <v>11496</v>
       </c>
       <c r="C74" s="4">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D74" s="4">
-        <v>2531</v>
+        <v>2537</v>
       </c>
       <c r="E74" s="4">
-        <v>14405</v>
+        <v>14428</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>22904</v>
+        <v>22964</v>
       </c>
       <c r="C75" s="4">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="D75" s="4">
-        <v>4039</v>
+        <v>4060</v>
       </c>
       <c r="E75" s="4">
-        <v>27686</v>
+        <v>27769</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>12691</v>
+        <v>12728</v>
       </c>
       <c r="C76" s="4">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D76" s="4">
-        <v>1788</v>
+        <v>1820</v>
       </c>
       <c r="E76" s="4">
-        <v>14857</v>
+        <v>14927</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,7 +2346,7 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="C77" s="4">
         <v>29</v>
@@ -2355,7 +2355,7 @@
         <v>236</v>
       </c>
       <c r="E77" s="4">
-        <v>1540</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>2131</v>
+        <v>2136</v>
       </c>
       <c r="C78" s="4">
         <v>109</v>
       </c>
       <c r="D78" s="4">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E78" s="4">
-        <v>2547</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,16 +2380,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C79" s="4">
         <v>77</v>
       </c>
       <c r="D79" s="4">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E79" s="4">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>568010</v>
+        <v>569530</v>
       </c>
       <c r="C80" s="4">
-        <v>21153</v>
+        <v>21213</v>
       </c>
       <c r="D80" s="4">
-        <v>29308</v>
+        <v>29806</v>
       </c>
       <c r="E80" s="4">
-        <v>618471</v>
+        <v>620549</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>4025</v>
+        <v>4032</v>
       </c>
       <c r="C81" s="4">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D81" s="4">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="E81" s="4">
-        <v>5126</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>12749</v>
+        <v>12762</v>
       </c>
       <c r="C82" s="4">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D82" s="4">
-        <v>3883</v>
+        <v>3890</v>
       </c>
       <c r="E82" s="4">
-        <v>17278</v>
+        <v>17302</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>15052</v>
+        <v>15121</v>
       </c>
       <c r="C83" s="4">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D83" s="4">
-        <v>656</v>
+        <v>682</v>
       </c>
       <c r="E83" s="4">
-        <v>16124</v>
+        <v>16225</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>3095</v>
+        <v>3099</v>
       </c>
       <c r="C84" s="4">
         <v>208</v>
       </c>
       <c r="D84" s="4">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="E84" s="4">
-        <v>4038</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>303553</v>
+        <v>304552</v>
       </c>
       <c r="C85" s="4">
-        <v>9142</v>
+        <v>9175</v>
       </c>
       <c r="D85" s="4">
-        <v>21557</v>
+        <v>21744</v>
       </c>
       <c r="E85" s="4">
-        <v>334252</v>
+        <v>335471</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="C86" s="4">
         <v>47</v>
       </c>
       <c r="D86" s="4">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="E86" s="4">
-        <v>2932</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>14592</v>
+        <v>14611</v>
       </c>
       <c r="C87" s="4">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D87" s="4">
-        <v>2933</v>
+        <v>2964</v>
       </c>
       <c r="E87" s="4">
-        <v>17878</v>
+        <v>17929</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2396</v>
+        <v>2404</v>
       </c>
       <c r="C89" s="4">
         <v>149</v>
       </c>
       <c r="D89" s="4">
-        <v>1519</v>
+        <v>1524</v>
       </c>
       <c r="E89" s="4">
-        <v>4064</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>11714</v>
+        <v>11735</v>
       </c>
       <c r="C90" s="4">
         <v>287</v>
       </c>
       <c r="D90" s="4">
-        <v>3233</v>
+        <v>3245</v>
       </c>
       <c r="E90" s="4">
-        <v>15234</v>
+        <v>15267</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>6967</v>
+        <v>7052</v>
       </c>
       <c r="C91" s="4">
         <v>820</v>
       </c>
       <c r="D91" s="4">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="E91" s="4">
-        <v>9467</v>
+        <v>9555</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>93412</v>
+        <v>93898</v>
       </c>
       <c r="C92" s="4">
-        <v>3629</v>
+        <v>3643</v>
       </c>
       <c r="D92" s="4">
-        <v>10959</v>
+        <v>11111</v>
       </c>
       <c r="E92" s="4">
-        <v>108000</v>
+        <v>108652</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>43699</v>
+        <v>43798</v>
       </c>
       <c r="C93" s="4">
-        <v>9822</v>
+        <v>9845</v>
       </c>
       <c r="D93" s="4">
-        <v>12863</v>
+        <v>12991</v>
       </c>
       <c r="E93" s="4">
-        <v>66384</v>
+        <v>66634</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>25157</v>
+        <v>25244</v>
       </c>
       <c r="C94" s="4">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D94" s="4">
-        <v>1905</v>
+        <v>1937</v>
       </c>
       <c r="E94" s="4">
-        <v>27530</v>
+        <v>27650</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>68572</v>
+        <v>68788</v>
       </c>
       <c r="C95" s="4">
-        <v>3109</v>
+        <v>3113</v>
       </c>
       <c r="D95" s="4">
-        <v>13123</v>
+        <v>13220</v>
       </c>
       <c r="E95" s="4">
-        <v>84804</v>
+        <v>85121</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>12167</v>
+        <v>12197</v>
       </c>
       <c r="C96" s="4">
         <v>274</v>
       </c>
       <c r="D96" s="4">
-        <v>1887</v>
+        <v>1900</v>
       </c>
       <c r="E96" s="4">
-        <v>14328</v>
+        <v>14371</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1106</v>
+        <v>1118</v>
       </c>
       <c r="C97" s="4">
         <v>38</v>
       </c>
       <c r="D97" s="4">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="E97" s="4">
-        <v>3084</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>4589</v>
+        <v>4597</v>
       </c>
       <c r="C98" s="4">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D98" s="4">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="E98" s="4">
-        <v>5933</v>
+        <v>5947</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C99" s="4">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D99" s="4">
         <v>1664</v>
       </c>
       <c r="E99" s="4">
-        <v>3383</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1402</v>
+        <v>1411</v>
       </c>
       <c r="C100" s="4">
         <v>178</v>
       </c>
       <c r="D100" s="4">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E100" s="4">
-        <v>2428</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>18078</v>
+        <v>18187</v>
       </c>
       <c r="C101" s="4">
-        <v>3124</v>
+        <v>3128</v>
       </c>
       <c r="D101" s="4">
-        <v>5197</v>
+        <v>5224</v>
       </c>
       <c r="E101" s="4">
-        <v>26399</v>
+        <v>26539</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3478471</v>
+        <v>3487184</v>
       </c>
       <c r="C102" s="4">
-        <v>127730</v>
+        <v>128032</v>
       </c>
       <c r="D102" s="4">
-        <v>248719</v>
+        <v>251436</v>
       </c>
       <c r="E102" s="4">
-        <v>3854920</v>
+        <v>3866652</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>53408</v>
+        <v>53500</v>
       </c>
       <c r="C103" s="4">
-        <v>7286</v>
+        <v>7310</v>
       </c>
       <c r="D103" s="4">
-        <v>7359</v>
+        <v>7413</v>
       </c>
       <c r="E103" s="4">
-        <v>68053</v>
+        <v>68223</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C105" s="4">
         <v>34</v>
       </c>
       <c r="D105" s="4">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="E105" s="4">
-        <v>2488</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>204324</v>
+        <v>205256</v>
       </c>
       <c r="C106" s="4">
-        <v>10076</v>
+        <v>10085</v>
       </c>
       <c r="D106" s="4">
-        <v>12369</v>
+        <v>12660</v>
       </c>
       <c r="E106" s="4">
-        <v>226769</v>
+        <v>228001</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2859,13 +2859,13 @@
         <v>933</v>
       </c>
       <c r="C107" s="4">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D107" s="4">
         <v>94</v>
       </c>
       <c r="E107" s="4">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>24125</v>
+        <v>24159</v>
       </c>
       <c r="C108" s="4">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="D108" s="4">
-        <v>6416</v>
+        <v>6433</v>
       </c>
       <c r="E108" s="4">
-        <v>32614</v>
+        <v>32668</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>397379</v>
+        <v>398360</v>
       </c>
       <c r="C109" s="4">
-        <v>14358</v>
+        <v>14384</v>
       </c>
       <c r="D109" s="4">
-        <v>96175</v>
+        <v>99388</v>
       </c>
       <c r="E109" s="4">
-        <v>507912</v>
+        <v>512132</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>30214</v>
+        <v>30249</v>
       </c>
       <c r="C110" s="4">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D110" s="4">
-        <v>5028</v>
+        <v>5039</v>
       </c>
       <c r="E110" s="4">
-        <v>36203</v>
+        <v>36250</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>7098</v>
+        <v>7113</v>
       </c>
       <c r="C111" s="4">
         <v>81</v>
       </c>
       <c r="D111" s="4">
-        <v>2816</v>
+        <v>2827</v>
       </c>
       <c r="E111" s="4">
-        <v>9995</v>
+        <v>10021</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>31828</v>
+        <v>31873</v>
       </c>
       <c r="C112" s="4">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="D112" s="4">
-        <v>16533</v>
+        <v>16672</v>
       </c>
       <c r="E112" s="4">
-        <v>50650</v>
+        <v>50837</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>15504</v>
+        <v>15524</v>
       </c>
       <c r="C113" s="4">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="D113" s="4">
-        <v>2561</v>
+        <v>2634</v>
       </c>
       <c r="E113" s="4">
-        <v>19884</v>
+        <v>19979</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>13960</v>
+        <v>14034</v>
       </c>
       <c r="C114" s="4">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D114" s="4">
-        <v>2442</v>
+        <v>2452</v>
       </c>
       <c r="E114" s="4">
-        <v>16730</v>
+        <v>16815</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>14848</v>
+        <v>14941</v>
       </c>
       <c r="C115" s="4">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D115" s="4">
-        <v>3605</v>
+        <v>3617</v>
       </c>
       <c r="E115" s="4">
-        <v>18896</v>
+        <v>19003</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2316</v>
+        <v>2320</v>
       </c>
       <c r="C116" s="4">
         <v>31</v>
       </c>
       <c r="D116" s="4">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="E116" s="4">
-        <v>3275</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>68453</v>
+        <v>68637</v>
       </c>
       <c r="C117" s="4">
-        <v>3489</v>
+        <v>3492</v>
       </c>
       <c r="D117" s="4">
-        <v>8237</v>
+        <v>8295</v>
       </c>
       <c r="E117" s="4">
-        <v>80179</v>
+        <v>80424</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>8028</v>
+        <v>8046</v>
       </c>
       <c r="C118" s="4">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D118" s="4">
-        <v>3104</v>
+        <v>3112</v>
       </c>
       <c r="E118" s="4">
-        <v>12217</v>
+        <v>12244</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C119" s="4">
         <v>9</v>
       </c>
       <c r="D119" s="4">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E119" s="4">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1599</v>
+        <v>1603</v>
       </c>
       <c r="C120" s="4">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D120" s="4">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E120" s="4">
-        <v>2046</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6468</v>
+        <v>6475</v>
       </c>
       <c r="C121" s="4">
         <v>133</v>
       </c>
       <c r="D121" s="4">
-        <v>1045</v>
+        <v>1261</v>
       </c>
       <c r="E121" s="4">
-        <v>7646</v>
+        <v>7869</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>12182</v>
+        <v>12199</v>
       </c>
       <c r="C122" s="4">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="D122" s="4">
-        <v>3031</v>
+        <v>3054</v>
       </c>
       <c r="E122" s="4">
-        <v>17730</v>
+        <v>17772</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C123" s="4">
         <v>37</v>
       </c>
       <c r="D123" s="4">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E123" s="4">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>145242</v>
+        <v>145551</v>
       </c>
       <c r="C124" s="4">
-        <v>11800</v>
+        <v>11824</v>
       </c>
       <c r="D124" s="4">
-        <v>27930</v>
+        <v>28256</v>
       </c>
       <c r="E124" s="4">
-        <v>184972</v>
+        <v>185631</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>12520</v>
+        <v>12547</v>
       </c>
       <c r="C125" s="4">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D125" s="4">
-        <v>3184</v>
+        <v>3192</v>
       </c>
       <c r="E125" s="4">
-        <v>16196</v>
+        <v>16232</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>43235</v>
+        <v>43354</v>
       </c>
       <c r="C126" s="4">
-        <v>7160</v>
+        <v>7172</v>
       </c>
       <c r="D126" s="4">
-        <v>12239</v>
+        <v>12369</v>
       </c>
       <c r="E126" s="4">
-        <v>62634</v>
+        <v>62895</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>104771</v>
+        <v>104964</v>
       </c>
       <c r="C127" s="4">
-        <v>6230</v>
+        <v>6243</v>
       </c>
       <c r="D127" s="4">
-        <v>12617</v>
+        <v>12762</v>
       </c>
       <c r="E127" s="4">
-        <v>123618</v>
+        <v>123969</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>5484</v>
+        <v>5493</v>
       </c>
       <c r="C128" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D128" s="4">
-        <v>2447</v>
+        <v>2451</v>
       </c>
       <c r="E128" s="4">
-        <v>8121</v>
+        <v>8135</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>12353</v>
+        <v>12372</v>
       </c>
       <c r="C129" s="4">
         <v>392</v>
       </c>
       <c r="D129" s="4">
-        <v>4049</v>
+        <v>4087</v>
       </c>
       <c r="E129" s="4">
-        <v>16794</v>
+        <v>16851</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>91749</v>
+        <v>92025</v>
       </c>
       <c r="C130" s="4">
-        <v>4867</v>
+        <v>4879</v>
       </c>
       <c r="D130" s="4">
-        <v>13510</v>
+        <v>13588</v>
       </c>
       <c r="E130" s="4">
-        <v>110126</v>
+        <v>110492</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>20381</v>
+        <v>20435</v>
       </c>
       <c r="C131" s="4">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D131" s="4">
-        <v>6876</v>
+        <v>6910</v>
       </c>
       <c r="E131" s="4">
-        <v>28493</v>
+        <v>28582</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3304,10 +3304,10 @@
         <v>1</v>
       </c>
       <c r="D133" s="4">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E133" s="4">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>28276</v>
+        <v>28305</v>
       </c>
       <c r="C134" s="4">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D134" s="4">
-        <v>16957</v>
+        <v>16996</v>
       </c>
       <c r="E134" s="4">
-        <v>45821</v>
+        <v>45892</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="C135" s="4">
         <v>37</v>
       </c>
       <c r="D135" s="4">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E135" s="4">
-        <v>1846</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,7 +3366,7 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="C137" s="4">
         <v>42</v>
@@ -3375,7 +3375,7 @@
         <v>108</v>
       </c>
       <c r="E137" s="4">
-        <v>2055</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>24091</v>
+        <v>24172</v>
       </c>
       <c r="C138" s="4">
-        <v>4028</v>
+        <v>4053</v>
       </c>
       <c r="D138" s="4">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E138" s="4">
-        <v>33519</v>
+        <v>33725</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>6587</v>
+        <v>6614</v>
       </c>
       <c r="C140" s="4">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D140" s="4">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E140" s="4">
-        <v>7119</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>20167</v>
+        <v>20252</v>
       </c>
       <c r="C141" s="4">
-        <v>2087</v>
+        <v>2090</v>
       </c>
       <c r="D141" s="4">
-        <v>2851</v>
+        <v>2869</v>
       </c>
       <c r="E141" s="4">
-        <v>25105</v>
+        <v>25211</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>5165</v>
+        <v>5174</v>
       </c>
       <c r="C142" s="4">
         <v>86</v>
       </c>
       <c r="D142" s="4">
-        <v>3913</v>
+        <v>3922</v>
       </c>
       <c r="E142" s="4">
-        <v>9164</v>
+        <v>9182</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>14811</v>
+        <v>14898</v>
       </c>
       <c r="C143" s="4">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D143" s="4">
-        <v>2914</v>
+        <v>2929</v>
       </c>
       <c r="E143" s="4">
-        <v>18323</v>
+        <v>18426</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>10495</v>
+        <v>10524</v>
       </c>
       <c r="C144" s="4">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D144" s="4">
-        <v>2401</v>
+        <v>2410</v>
       </c>
       <c r="E144" s="4">
-        <v>13322</v>
+        <v>13361</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>7242</v>
+        <v>7271</v>
       </c>
       <c r="C145" s="4">
         <v>210</v>
       </c>
       <c r="D145" s="4">
-        <v>2395</v>
+        <v>2441</v>
       </c>
       <c r="E145" s="4">
-        <v>9847</v>
+        <v>9922</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>8517</v>
+        <v>8546</v>
       </c>
       <c r="C146" s="4">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D146" s="4">
-        <v>1418</v>
+        <v>1438</v>
       </c>
       <c r="E146" s="4">
-        <v>10409</v>
+        <v>10460</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>46507</v>
+        <v>46618</v>
       </c>
       <c r="C147" s="4">
-        <v>2909</v>
+        <v>2915</v>
       </c>
       <c r="D147" s="4">
-        <v>4698</v>
+        <v>4781</v>
       </c>
       <c r="E147" s="4">
-        <v>54114</v>
+        <v>54314</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>27258</v>
+        <v>27292</v>
       </c>
       <c r="C148" s="4">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D148" s="4">
-        <v>4717</v>
+        <v>4722</v>
       </c>
       <c r="E148" s="4">
-        <v>32543</v>
+        <v>32583</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>4757</v>
+        <v>4761</v>
       </c>
       <c r="C150" s="4">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="D150" s="4">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="E150" s="4">
-        <v>6253</v>
+        <v>6268</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>9035</v>
+        <v>9077</v>
       </c>
       <c r="C151" s="4">
         <v>314</v>
       </c>
       <c r="D151" s="4">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="E151" s="4">
-        <v>10642</v>
+        <v>10688</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>180536</v>
+        <v>181402</v>
       </c>
       <c r="C153" s="4">
-        <v>6288</v>
+        <v>6301</v>
       </c>
       <c r="D153" s="4">
-        <v>82307</v>
+        <v>82847</v>
       </c>
       <c r="E153" s="4">
-        <v>269131</v>
+        <v>270550</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2722</v>
+        <v>2727</v>
       </c>
       <c r="C154" s="4">
         <v>92</v>
       </c>
       <c r="D154" s="4">
-        <v>1537</v>
+        <v>1604</v>
       </c>
       <c r="E154" s="4">
-        <v>4351</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>11214</v>
+        <v>11241</v>
       </c>
       <c r="C155" s="4">
         <v>160</v>
       </c>
       <c r="D155" s="4">
-        <v>1606</v>
+        <v>1616</v>
       </c>
       <c r="E155" s="4">
-        <v>12980</v>
+        <v>13017</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>2166</v>
+        <v>2176</v>
       </c>
       <c r="C156" s="4">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="D156" s="4">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="E156" s="4">
-        <v>4156</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1133</v>
+        <v>1138</v>
       </c>
       <c r="C157" s="4">
         <v>125</v>
       </c>
       <c r="D157" s="4">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="E157" s="4">
-        <v>1722</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="C158" s="4">
         <v>56</v>
       </c>
       <c r="D158" s="4">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E158" s="4">
-        <v>2212</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>28055</v>
+        <v>28126</v>
       </c>
       <c r="C159" s="4">
         <v>646</v>
       </c>
       <c r="D159" s="4">
-        <v>1909</v>
+        <v>1917</v>
       </c>
       <c r="E159" s="4">
-        <v>30610</v>
+        <v>30689</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>52113</v>
+        <v>52204</v>
       </c>
       <c r="C160" s="4">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D160" s="4">
-        <v>5256</v>
+        <v>5281</v>
       </c>
       <c r="E160" s="4">
-        <v>57699</v>
+        <v>57816</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2202</v>
+        <v>2213</v>
       </c>
       <c r="C161" s="4">
         <v>38</v>
       </c>
       <c r="D161" s="4">
-        <v>1024</v>
+        <v>1075</v>
       </c>
       <c r="E161" s="4">
-        <v>3264</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>205966</v>
+        <v>206304</v>
       </c>
       <c r="C162" s="4">
-        <v>9437</v>
+        <v>9449</v>
       </c>
       <c r="D162" s="4">
-        <v>42906</v>
+        <v>43191</v>
       </c>
       <c r="E162" s="4">
-        <v>258309</v>
+        <v>258944</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>25323</v>
+        <v>25377</v>
       </c>
       <c r="C164" s="4">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="D164" s="4">
-        <v>4080</v>
+        <v>4097</v>
       </c>
       <c r="E164" s="4">
-        <v>30443</v>
+        <v>30516</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="C165" s="4">
         <v>20</v>
       </c>
       <c r="D165" s="4">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E165" s="4">
-        <v>2260</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>40997</v>
+        <v>41179</v>
       </c>
       <c r="C166" s="4">
-        <v>5367</v>
+        <v>5378</v>
       </c>
       <c r="D166" s="4">
-        <v>32567</v>
+        <v>32622</v>
       </c>
       <c r="E166" s="4">
-        <v>78931</v>
+        <v>79179</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>14513</v>
+        <v>14544</v>
       </c>
       <c r="C167" s="4">
         <v>837</v>
       </c>
       <c r="D167" s="4">
-        <v>5117</v>
+        <v>5132</v>
       </c>
       <c r="E167" s="4">
-        <v>20467</v>
+        <v>20513</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3881</v>
+        <v>3887</v>
       </c>
       <c r="C168" s="4">
         <v>83</v>
       </c>
       <c r="D168" s="4">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="E168" s="4">
-        <v>5099</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>4326</v>
+        <v>4336</v>
       </c>
       <c r="C169" s="4">
         <v>50</v>
       </c>
       <c r="D169" s="4">
-        <v>2195</v>
+        <v>2199</v>
       </c>
       <c r="E169" s="4">
-        <v>6571</v>
+        <v>6585</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>9541</v>
+        <v>9566</v>
       </c>
       <c r="C170" s="4">
         <v>752</v>
       </c>
       <c r="D170" s="4">
-        <v>2323</v>
+        <v>2333</v>
       </c>
       <c r="E170" s="4">
-        <v>12616</v>
+        <v>12651</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>314698</v>
+        <v>315573</v>
       </c>
       <c r="C171" s="4">
-        <v>15629</v>
+        <v>15661</v>
       </c>
       <c r="D171" s="4">
-        <v>32679</v>
+        <v>33012</v>
       </c>
       <c r="E171" s="4">
-        <v>363006</v>
+        <v>364246</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>7025</v>
+        <v>7030</v>
       </c>
       <c r="C172" s="4">
         <v>671</v>
       </c>
       <c r="D172" s="4">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="E172" s="4">
-        <v>9161</v>
+        <v>9169</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>5113</v>
+        <v>5124</v>
       </c>
       <c r="C173" s="4">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D173" s="4">
-        <v>3372</v>
+        <v>3377</v>
       </c>
       <c r="E173" s="4">
-        <v>9144</v>
+        <v>9162</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,7 +3995,7 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C174" s="4">
         <v>9</v>
@@ -4004,7 +4004,7 @@
         <v>93</v>
       </c>
       <c r="E174" s="4">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>36923</v>
+        <v>37013</v>
       </c>
       <c r="C175" s="4">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="D175" s="4">
-        <v>5070</v>
+        <v>5099</v>
       </c>
       <c r="E175" s="4">
-        <v>43093</v>
+        <v>43220</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>23150</v>
+        <v>23222</v>
       </c>
       <c r="C176" s="4">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="D176" s="4">
-        <v>7075</v>
+        <v>7080</v>
       </c>
       <c r="E176" s="4">
-        <v>31736</v>
+        <v>31815</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>3115</v>
+        <v>3119</v>
       </c>
       <c r="C177" s="4">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D177" s="4">
-        <v>1711</v>
+        <v>1720</v>
       </c>
       <c r="E177" s="4">
-        <v>5575</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>7640</v>
+        <v>7643</v>
       </c>
       <c r="C178" s="4">
         <v>138</v>
       </c>
       <c r="D178" s="4">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="E178" s="4">
-        <v>10389</v>
+        <v>10393</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>194003</v>
+        <v>194372</v>
       </c>
       <c r="C179" s="4">
-        <v>38259</v>
+        <v>38468</v>
       </c>
       <c r="D179" s="4">
-        <v>39395</v>
+        <v>39666</v>
       </c>
       <c r="E179" s="4">
-        <v>271657</v>
+        <v>272506</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C180" s="4">
         <v>185</v>
       </c>
       <c r="D180" s="4">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E180" s="4">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C181" s="4">
         <v>219</v>
       </c>
       <c r="D181" s="4">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E181" s="4">
-        <v>1215</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>24913</v>
+        <v>25060</v>
       </c>
       <c r="C182" s="4">
-        <v>5125</v>
+        <v>5135</v>
       </c>
       <c r="D182" s="4">
-        <v>8291</v>
+        <v>8357</v>
       </c>
       <c r="E182" s="4">
-        <v>38329</v>
+        <v>38552</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>12175</v>
+        <v>12194</v>
       </c>
       <c r="C183" s="4">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D183" s="4">
-        <v>4093</v>
+        <v>4120</v>
       </c>
       <c r="E183" s="4">
-        <v>17160</v>
+        <v>17207</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>8054</v>
+        <v>8068</v>
       </c>
       <c r="C184" s="4">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="D184" s="4">
-        <v>2640</v>
+        <v>2644</v>
       </c>
       <c r="E184" s="4">
-        <v>11659</v>
+        <v>11683</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>60814</v>
+        <v>60958</v>
       </c>
       <c r="C185" s="4">
-        <v>5668</v>
+        <v>5682</v>
       </c>
       <c r="D185" s="4">
-        <v>14591</v>
+        <v>14706</v>
       </c>
       <c r="E185" s="4">
-        <v>81073</v>
+        <v>81346</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="C186" s="4">
         <v>212</v>
       </c>
       <c r="D186" s="4">
-        <v>1047</v>
+        <v>1060</v>
       </c>
       <c r="E186" s="4">
-        <v>3028</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>9133</v>
+        <v>9209</v>
       </c>
       <c r="C187" s="4">
         <v>92</v>
       </c>
       <c r="D187" s="4">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="E187" s="4">
-        <v>10101</v>
+        <v>10180</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>28402</v>
+        <v>28562</v>
       </c>
       <c r="C188" s="4">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="D188" s="4">
-        <v>4775</v>
+        <v>4853</v>
       </c>
       <c r="E188" s="4">
-        <v>34288</v>
+        <v>34528</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>66258</v>
+        <v>66487</v>
       </c>
       <c r="C189" s="4">
-        <v>6067</v>
+        <v>6072</v>
       </c>
       <c r="D189" s="4">
-        <v>9837</v>
+        <v>9879</v>
       </c>
       <c r="E189" s="4">
-        <v>82162</v>
+        <v>82438</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7128</v>
+        <v>7129</v>
       </c>
       <c r="C190" s="4">
         <v>35</v>
       </c>
       <c r="D190" s="4">
-        <v>1123</v>
+        <v>1168</v>
       </c>
       <c r="E190" s="4">
-        <v>8286</v>
+        <v>8332</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2540</v>
+        <v>2545</v>
       </c>
       <c r="C191" s="4">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D191" s="4">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="E191" s="4">
-        <v>3464</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>42449</v>
+        <v>42609</v>
       </c>
       <c r="C192" s="4">
-        <v>12316</v>
+        <v>12321</v>
       </c>
       <c r="D192" s="4">
-        <v>9478</v>
+        <v>9534</v>
       </c>
       <c r="E192" s="4">
-        <v>64243</v>
+        <v>64464</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4324,10 +4324,10 @@
         <v>28</v>
       </c>
       <c r="D193" s="4">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E193" s="4">
-        <v>1221</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1740</v>
+        <v>1747</v>
       </c>
       <c r="C194" s="4">
         <v>64</v>
       </c>
       <c r="D194" s="4">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E194" s="4">
-        <v>2248</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>5375</v>
+        <v>5423</v>
       </c>
       <c r="C195" s="4">
         <v>486</v>
       </c>
       <c r="D195" s="4">
-        <v>1366</v>
+        <v>1377</v>
       </c>
       <c r="E195" s="4">
-        <v>7227</v>
+        <v>7286</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>5809</v>
+        <v>5838</v>
       </c>
       <c r="C196" s="4">
         <v>142</v>
       </c>
       <c r="D196" s="4">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="E196" s="4">
-        <v>6669</v>
+        <v>6706</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3671</v>
+        <v>3681</v>
       </c>
       <c r="C197" s="4">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D197" s="4">
-        <v>2603</v>
+        <v>2624</v>
       </c>
       <c r="E197" s="4">
-        <v>6630</v>
+        <v>6663</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4403,7 +4403,7 @@
         <v>201</v>
       </c>
       <c r="B198" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C198" s="4">
         <v>63</v>
@@ -4412,7 +4412,7 @@
         <v>33</v>
       </c>
       <c r="E198" s="4">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>10442</v>
+        <v>10484</v>
       </c>
       <c r="C199" s="4">
         <v>260</v>
       </c>
       <c r="D199" s="4">
-        <v>5538</v>
+        <v>5545</v>
       </c>
       <c r="E199" s="4">
-        <v>16240</v>
+        <v>16289</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>65152</v>
+        <v>65438</v>
       </c>
       <c r="C200" s="4">
-        <v>4885</v>
+        <v>4894</v>
       </c>
       <c r="D200" s="4">
-        <v>4324</v>
+        <v>4367</v>
       </c>
       <c r="E200" s="4">
-        <v>74361</v>
+        <v>74699</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5380</v>
+        <v>5402</v>
       </c>
       <c r="C201" s="4">
         <v>143</v>
       </c>
       <c r="D201" s="4">
-        <v>2407</v>
+        <v>2413</v>
       </c>
       <c r="E201" s="4">
-        <v>7930</v>
+        <v>7958</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>16431</v>
+        <v>16512</v>
       </c>
       <c r="C202" s="4">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="D202" s="4">
-        <v>2021</v>
+        <v>2035</v>
       </c>
       <c r="E202" s="4">
-        <v>20358</v>
+        <v>20454</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>5415</v>
+        <v>5429</v>
       </c>
       <c r="C203" s="4">
         <v>370</v>
       </c>
       <c r="D203" s="4">
-        <v>1768</v>
+        <v>1773</v>
       </c>
       <c r="E203" s="4">
-        <v>7553</v>
+        <v>7572</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>5123</v>
+        <v>5129</v>
       </c>
       <c r="C204" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D204" s="4">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="E204" s="4">
-        <v>7230</v>
+        <v>7239</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>14527</v>
+        <v>14614</v>
       </c>
       <c r="C205" s="4">
         <v>1396</v>
       </c>
       <c r="D205" s="4">
-        <v>2397</v>
+        <v>2439</v>
       </c>
       <c r="E205" s="4">
-        <v>18320</v>
+        <v>18449</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>26555</v>
+        <v>26630</v>
       </c>
       <c r="C206" s="4">
-        <v>6973</v>
+        <v>7010</v>
       </c>
       <c r="D206" s="4">
-        <v>12935</v>
+        <v>13058</v>
       </c>
       <c r="E206" s="4">
-        <v>46463</v>
+        <v>46698</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2528</v>
+        <v>2558</v>
       </c>
       <c r="C207" s="4">
         <v>78</v>
       </c>
       <c r="D207" s="4">
-        <v>1791</v>
+        <v>1795</v>
       </c>
       <c r="E207" s="4">
-        <v>4397</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="C208" s="4">
         <v>12</v>
       </c>
       <c r="D208" s="4">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E208" s="4">
-        <v>1201</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>15608</v>
+        <v>15614</v>
       </c>
       <c r="C209" s="4">
         <v>169</v>
       </c>
       <c r="D209" s="4">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E209" s="4">
-        <v>16362</v>
+        <v>16370</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4610,13 +4610,13 @@
         <v>684</v>
       </c>
       <c r="C210" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D210" s="4">
         <v>393</v>
       </c>
       <c r="E210" s="4">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>10628</v>
+        <v>10665</v>
       </c>
       <c r="C211" s="4">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D211" s="4">
-        <v>2644</v>
+        <v>2652</v>
       </c>
       <c r="E211" s="4">
-        <v>13676</v>
+        <v>13722</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>160173</v>
+        <v>160394</v>
       </c>
       <c r="C213" s="4">
-        <v>8879</v>
+        <v>8884</v>
       </c>
       <c r="D213" s="4">
-        <v>17328</v>
+        <v>17428</v>
       </c>
       <c r="E213" s="4">
-        <v>186380</v>
+        <v>186706</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4681,10 +4681,10 @@
         <v>370</v>
       </c>
       <c r="D214" s="4">
-        <v>3766</v>
+        <v>3779</v>
       </c>
       <c r="E214" s="4">
-        <v>7932</v>
+        <v>7945</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>44934</v>
+        <v>45093</v>
       </c>
       <c r="C215" s="4">
         <v>545</v>
       </c>
       <c r="D215" s="4">
-        <v>7560</v>
+        <v>7819</v>
       </c>
       <c r="E215" s="4">
-        <v>53039</v>
+        <v>53457</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2473</v>
+        <v>2477</v>
       </c>
       <c r="C216" s="4">
         <v>129</v>
       </c>
       <c r="D216" s="4">
-        <v>1563</v>
+        <v>1570</v>
       </c>
       <c r="E216" s="4">
-        <v>4165</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4726,16 +4726,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C217" s="4">
         <v>6</v>
       </c>
       <c r="D217" s="4">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E217" s="4">
-        <v>922</v>
+        <v>930</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E218" s="4">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="C219" s="4">
         <v>27</v>
       </c>
       <c r="D219" s="4">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="E219" s="4">
-        <v>1859</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>3311</v>
+        <v>3394</v>
       </c>
       <c r="C220" s="4">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D220" s="4">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E220" s="4">
-        <v>4283</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1425919</v>
+        <v>1430167</v>
       </c>
       <c r="C221" s="4">
-        <v>85682</v>
+        <v>85852</v>
       </c>
       <c r="D221" s="4">
-        <v>150386</v>
+        <v>152566</v>
       </c>
       <c r="E221" s="4">
-        <v>1661987</v>
+        <v>1668585</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>77663</v>
+        <v>77757</v>
       </c>
       <c r="C222" s="4">
-        <v>3119</v>
+        <v>3125</v>
       </c>
       <c r="D222" s="4">
-        <v>36873</v>
+        <v>36963</v>
       </c>
       <c r="E222" s="4">
-        <v>117655</v>
+        <v>117845</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>3033</v>
+        <v>3042</v>
       </c>
       <c r="C224" s="4">
         <v>104</v>
       </c>
       <c r="D224" s="4">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="E224" s="4">
-        <v>4149</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4868,10 +4868,10 @@
         <v>25</v>
       </c>
       <c r="D225" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E225" s="4">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>20692</v>
+        <v>20711</v>
       </c>
       <c r="C226" s="4">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="D226" s="4">
-        <v>3172</v>
+        <v>3209</v>
       </c>
       <c r="E226" s="4">
-        <v>24946</v>
+        <v>25004</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>68623</v>
+        <v>68759</v>
       </c>
       <c r="C227" s="4">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="D227" s="4">
-        <v>36165</v>
+        <v>36471</v>
       </c>
       <c r="E227" s="4">
-        <v>106252</v>
+        <v>106700</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>865213</v>
+        <v>868715</v>
       </c>
       <c r="C228" s="4">
-        <v>38121</v>
+        <v>38182</v>
       </c>
       <c r="D228" s="4">
-        <v>108171</v>
+        <v>109449</v>
       </c>
       <c r="E228" s="4">
-        <v>1011505</v>
+        <v>1016346</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>9696</v>
+        <v>9739</v>
       </c>
       <c r="C229" s="4">
         <v>226</v>
       </c>
       <c r="D229" s="4">
-        <v>2344</v>
+        <v>2357</v>
       </c>
       <c r="E229" s="4">
-        <v>12266</v>
+        <v>12322</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>8077</v>
+        <v>8098</v>
       </c>
       <c r="C230" s="4">
         <v>849</v>
       </c>
       <c r="D230" s="4">
-        <v>3807</v>
+        <v>3816</v>
       </c>
       <c r="E230" s="4">
-        <v>12733</v>
+        <v>12763</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>9675</v>
+        <v>9725</v>
       </c>
       <c r="C231" s="4">
-        <v>1928</v>
+        <v>1932</v>
       </c>
       <c r="D231" s="4">
-        <v>3022</v>
+        <v>3044</v>
       </c>
       <c r="E231" s="4">
-        <v>14625</v>
+        <v>14701</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="C232" s="4">
         <v>68</v>
       </c>
       <c r="D232" s="4">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="E232" s="4">
-        <v>2691</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>22359</v>
+        <v>22405</v>
       </c>
       <c r="C233" s="4">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D233" s="4">
-        <v>1174</v>
+        <v>1189</v>
       </c>
       <c r="E233" s="4">
-        <v>23884</v>
+        <v>23947</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>38822</v>
+        <v>38945</v>
       </c>
       <c r="C234" s="4">
         <v>1130</v>
       </c>
       <c r="D234" s="4">
-        <v>7369</v>
+        <v>7597</v>
       </c>
       <c r="E234" s="4">
-        <v>47321</v>
+        <v>47672</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>16644</v>
+        <v>16682</v>
       </c>
       <c r="C235" s="4">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="D235" s="4">
-        <v>5359</v>
+        <v>5383</v>
       </c>
       <c r="E235" s="4">
-        <v>23709</v>
+        <v>23772</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>35301</v>
+        <v>35417</v>
       </c>
       <c r="C236" s="4">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="D236" s="4">
-        <v>11886</v>
+        <v>11935</v>
       </c>
       <c r="E236" s="4">
-        <v>48698</v>
+        <v>48864</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>89152</v>
+        <v>89838</v>
       </c>
       <c r="C237" s="4">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D237" s="4">
-        <v>7775</v>
+        <v>7944</v>
       </c>
       <c r="E237" s="4">
-        <v>98055</v>
+        <v>98911</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>28138</v>
+        <v>28259</v>
       </c>
       <c r="C238" s="4">
         <v>746</v>
       </c>
       <c r="D238" s="4">
-        <v>2306</v>
+        <v>2360</v>
       </c>
       <c r="E238" s="4">
-        <v>31190</v>
+        <v>31365</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,7 +5100,7 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4164</v>
+        <v>4193</v>
       </c>
       <c r="C239" s="4">
         <v>129</v>
@@ -5109,7 +5109,7 @@
         <v>338</v>
       </c>
       <c r="E239" s="4">
-        <v>4631</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>32800</v>
+        <v>32873</v>
       </c>
       <c r="C240" s="4">
         <v>534</v>
       </c>
       <c r="D240" s="4">
-        <v>4835</v>
+        <v>5036</v>
       </c>
       <c r="E240" s="4">
-        <v>38169</v>
+        <v>38443</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>321977</v>
+        <v>322503</v>
       </c>
       <c r="C241" s="4">
-        <v>4272</v>
+        <v>4281</v>
       </c>
       <c r="D241" s="4">
-        <v>39944</v>
+        <v>40613</v>
       </c>
       <c r="E241" s="4">
-        <v>366193</v>
+        <v>367397</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>28212</v>
+        <v>28278</v>
       </c>
       <c r="C242" s="4">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D242" s="4">
-        <v>2292</v>
+        <v>2340</v>
       </c>
       <c r="E242" s="4">
-        <v>31258</v>
+        <v>31374</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="C243" s="4">
         <v>290</v>
       </c>
       <c r="D243" s="4">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="E243" s="4">
-        <v>3645</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>98077</v>
+        <v>98133</v>
       </c>
       <c r="C244" s="4">
-        <v>4992</v>
+        <v>5003</v>
       </c>
       <c r="D244" s="4">
-        <v>18453</v>
+        <v>18633</v>
       </c>
       <c r="E244" s="4">
-        <v>121522</v>
+        <v>121769</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>10891</v>
+        <v>10914</v>
       </c>
       <c r="C245" s="4">
         <v>468</v>
       </c>
       <c r="D245" s="4">
-        <v>3565</v>
+        <v>3570</v>
       </c>
       <c r="E245" s="4">
-        <v>14924</v>
+        <v>14952</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>20876</v>
+        <v>20999</v>
       </c>
       <c r="C246" s="4">
         <v>165</v>
       </c>
       <c r="D246" s="4">
-        <v>1307</v>
+        <v>1349</v>
       </c>
       <c r="E246" s="4">
-        <v>22348</v>
+        <v>22513</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>367038</v>
+        <v>368487</v>
       </c>
       <c r="C247" s="4">
-        <v>13689</v>
+        <v>13714</v>
       </c>
       <c r="D247" s="4">
-        <v>46634</v>
+        <v>47082</v>
       </c>
       <c r="E247" s="4">
-        <v>427361</v>
+        <v>429283</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>28506</v>
+        <v>28561</v>
       </c>
       <c r="C248" s="4">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D248" s="4">
-        <v>5976</v>
+        <v>6009</v>
       </c>
       <c r="E248" s="4">
-        <v>35378</v>
+        <v>35467</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,7 +5270,7 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="C249" s="4">
         <v>40</v>
@@ -5279,7 +5279,7 @@
         <v>168</v>
       </c>
       <c r="E249" s="4">
-        <v>1140</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>41270</v>
+        <v>41445</v>
       </c>
       <c r="C250" s="4">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="D250" s="4">
-        <v>4738</v>
+        <v>4763</v>
       </c>
       <c r="E250" s="4">
-        <v>49001</v>
+        <v>49202</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>14861</v>
+        <v>14898</v>
       </c>
       <c r="C251" s="4">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="D251" s="4">
-        <v>3116</v>
+        <v>3144</v>
       </c>
       <c r="E251" s="4">
-        <v>19710</v>
+        <v>19776</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,7 +5321,7 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="C252" s="4">
         <v>90</v>
@@ -5330,7 +5330,7 @@
         <v>471</v>
       </c>
       <c r="E252" s="4">
-        <v>2684</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>6322</v>
+        <v>6331</v>
       </c>
       <c r="C253" s="4">
         <v>514</v>
       </c>
       <c r="D253" s="4">
-        <v>1505</v>
+        <v>1517</v>
       </c>
       <c r="E253" s="4">
-        <v>8341</v>
+        <v>8362</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>15142</v>
+        <v>15157</v>
       </c>
       <c r="C254" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D254" s="4">
-        <v>3525</v>
+        <v>3686</v>
       </c>
       <c r="E254" s="4">
-        <v>18786</v>
+        <v>18963</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>8881</v>
+        <v>8895</v>
       </c>
       <c r="C255" s="4">
         <v>223</v>
       </c>
       <c r="D255" s="4">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="E255" s="4">
-        <v>9638</v>
+        <v>9664</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>131170</v>
+        <v>131622</v>
       </c>
       <c r="C256" s="4">
         <v>8431</v>
       </c>
       <c r="D256" s="4">
-        <v>4397</v>
+        <v>4407</v>
       </c>
       <c r="E256" s="4">
-        <v>143998</v>
+        <v>144460</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>19707655</v>
+        <v>19764177</v>
       </c>
       <c r="C257" s="4">
-        <v>1020452</v>
+        <v>1022798</v>
       </c>
       <c r="D257" s="4">
-        <v>2564354</v>
+        <v>2606279</v>
       </c>
       <c r="E257" s="4">
-        <v>23292461</v>
+        <v>23393254</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
